--- a/Documentation/Gantt-Chart.xlsx
+++ b/Documentation/Gantt-Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD3570A-4920-4085-8E92-A54446B65602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD358A46-AFBB-46D9-A21A-912A42BC2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="720" windowWidth="23016" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -30,12 +30,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>Project start:</t>
   </si>
@@ -145,12 +154,6 @@
     <t>Arya,Avishkar</t>
   </si>
   <si>
-    <t>BuyerOrder</t>
-  </si>
-  <si>
-    <t>Buyer Dashboard And Profile</t>
-  </si>
-  <si>
     <t>Seller Dashboard</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>Login,Signup,Otp</t>
+  </si>
+  <si>
+    <t>Avishkar</t>
   </si>
   <si>
     <t>Prathamesh,Srivaths Iyer</t>
@@ -199,7 +205,13 @@
     <t>Shurti</t>
   </si>
   <si>
-    <t>Arya, Avishkar</t>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Buyer Dashboard And  cart</t>
+  </si>
+  <si>
+    <t>BuyerOrder  And Address</t>
   </si>
 </sst>
 </file>
@@ -207,11 +219,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -718,7 +730,7 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -727,10 +739,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyFill="0">
@@ -740,7 +752,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -782,13 +794,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,10 +825,10 @@
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,7 +843,7 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -843,7 +855,7 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,10 +867,10 @@
     <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
@@ -870,7 +882,7 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,10 +891,10 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,7 +909,7 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -909,10 +921,10 @@
     <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,7 +939,7 @@
     <xf numFmtId="9" fontId="1" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -952,10 +964,10 @@
     <xf numFmtId="9" fontId="1" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
@@ -967,7 +979,7 @@
     <xf numFmtId="9" fontId="1" fillId="14" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +991,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1018,7 +1030,7 @@
     <xf numFmtId="9" fontId="1" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="13" fillId="15" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="3" applyFill="1"/>
@@ -1049,9 +1061,6 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1064,14 +1073,23 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1082,23 +1100,8 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1686,93 +1689,93 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM68"/>
+  <dimension ref="A1:BM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="72" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.296875" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="2.69921875" customWidth="1"/>
-    <col min="9" max="9" width="0.296875" hidden="1" customWidth="1"/>
-    <col min="10" max="66" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="2.75" customWidth="1"/>
+    <col min="9" max="9" width="0.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="66" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="90" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="113"/>
-      <c r="B1" s="113"/>
+    <row r="1" spans="1:65" ht="90" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
       <c r="Q1" s="12"/>
-      <c r="R1" s="123">
+      <c r="R1" s="118">
         <v>45809</v>
       </c>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C2" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="10"/>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="122">
+      <c r="R2" s="117">
         <v>2</v>
       </c>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C3" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="70" t="s">
         <v>2</v>
@@ -1780,7 +1783,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="10"/>
-      <c r="J3" s="112"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -1788,7 +1791,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="111"/>
+      <c r="R3" s="110"/>
       <c r="S3" s="71"/>
       <c r="T3" s="71"/>
       <c r="U3" s="71"/>
@@ -1799,7 +1802,7 @@
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
     </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C4" s="69" t="s">
         <v>33</v>
       </c>
@@ -1809,7 +1812,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="10"/>
-      <c r="J4" s="112"/>
+      <c r="J4" s="111"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -1817,7 +1820,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="111"/>
+      <c r="R4" s="110"/>
       <c r="S4" s="71"/>
       <c r="T4" s="71"/>
       <c r="U4" s="71"/>
@@ -1828,15 +1831,15 @@
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
     </row>
-    <row r="5" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C5" s="69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
-      <c r="J5" s="112"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1844,7 +1847,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="111"/>
+      <c r="R5" s="110"/>
       <c r="S5" s="71"/>
       <c r="T5" s="71"/>
       <c r="U5" s="71"/>
@@ -1855,115 +1858,115 @@
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
     </row>
-    <row r="6" spans="1:65" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="13"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:65" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
+    <row r="7" spans="1:65" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="17"/>
       <c r="F7" s="18"/>
-      <c r="J7" s="126">
+      <c r="J7" s="115">
         <f>J8</f>
         <v>45817</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="125">
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="114">
         <f>Q8</f>
         <v>45824</v>
       </c>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125">
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114">
         <f>X8</f>
         <v>45831</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="125">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="114">
         <f>AE8</f>
         <v>45838</v>
       </c>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="125"/>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="125">
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="114">
         <f>AL8</f>
         <v>45845</v>
       </c>
-      <c r="AM7" s="125"/>
-      <c r="AN7" s="125"/>
-      <c r="AO7" s="125"/>
-      <c r="AP7" s="125"/>
-      <c r="AQ7" s="125"/>
-      <c r="AR7" s="125"/>
-      <c r="AS7" s="125">
+      <c r="AM7" s="114"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114">
         <f>AS8</f>
         <v>45852</v>
       </c>
-      <c r="AT7" s="125"/>
-      <c r="AU7" s="125"/>
-      <c r="AV7" s="125"/>
-      <c r="AW7" s="125"/>
-      <c r="AX7" s="125"/>
-      <c r="AY7" s="125"/>
-      <c r="AZ7" s="125">
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
+      <c r="AX7" s="114"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="114">
         <f>AZ8</f>
         <v>45859</v>
       </c>
-      <c r="BA7" s="125"/>
-      <c r="BB7" s="125"/>
-      <c r="BC7" s="125"/>
-      <c r="BD7" s="125"/>
-      <c r="BE7" s="125"/>
-      <c r="BF7" s="125"/>
-      <c r="BG7" s="125">
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="114"/>
+      <c r="BD7" s="114"/>
+      <c r="BE7" s="114"/>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114">
         <f>BG8</f>
         <v>45866</v>
       </c>
-      <c r="BH7" s="125"/>
-      <c r="BI7" s="125"/>
-      <c r="BJ7" s="125"/>
-      <c r="BK7" s="125"/>
-      <c r="BL7" s="125"/>
-      <c r="BM7" s="125"/>
+      <c r="BH7" s="114"/>
+      <c r="BI7" s="114"/>
+      <c r="BJ7" s="114"/>
+      <c r="BK7" s="114"/>
+      <c r="BL7" s="114"/>
+      <c r="BM7" s="114"/>
     </row>
-    <row r="8" spans="1:65" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="119" t="s">
+    <row r="8" spans="1:65" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="120"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="116" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="19">
@@ -2191,14 +2194,14 @@
         <v>45872</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
+    <row r="9" spans="1:65" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
       <c r="J9" s="22" t="str">
         <f t="shared" ref="J9:AO9" si="3">LEFT(TEXT(J8,"ddd"),1)</f>
         <v>M</v>
@@ -2424,7 +2427,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="14" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" s="14" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2495,8 +2498,8 @@
       <c r="BL10" s="27"/>
       <c r="BM10" s="27"/>
     </row>
-    <row r="11" spans="1:65" s="33" customFormat="1" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
+    <row r="11" spans="1:65" s="33" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="112"/>
       <c r="B11" s="90" t="s">
         <v>10</v>
       </c>
@@ -2569,9 +2572,9 @@
       <c r="BL11" s="32"/>
       <c r="BM11" s="32"/>
     </row>
-    <row r="12" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
+    <row r="12" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="73" t="s">
         <v>12</v>
       </c>
@@ -2650,9 +2653,9 @@
       <c r="BL12" s="37"/>
       <c r="BM12" s="37"/>
     </row>
-    <row r="13" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
+    <row r="13" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="83" t="s">
         <v>26</v>
       </c>
@@ -2732,7 +2735,7 @@
       <c r="BL13" s="37"/>
       <c r="BM13" s="37"/>
     </row>
-    <row r="14" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="83" t="s">
@@ -2814,7 +2817,7 @@
       <c r="BL14" s="37"/>
       <c r="BM14" s="37"/>
     </row>
-    <row r="15" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="83" t="s">
@@ -2896,7 +2899,7 @@
       <c r="BL15" s="37"/>
       <c r="BM15" s="37"/>
     </row>
-    <row r="16" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="90" t="s">
         <v>13</v>
@@ -2970,7 +2973,7 @@
       <c r="BL16" s="32"/>
       <c r="BM16" s="32"/>
     </row>
-    <row r="17" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="73" t="s">
@@ -3051,7 +3054,7 @@
       <c r="BL17" s="37"/>
       <c r="BM17" s="37"/>
     </row>
-    <row r="18" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="83" t="s">
@@ -3061,7 +3064,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="39">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F18" s="40">
         <f>G17</f>
@@ -3133,7 +3136,7 @@
       <c r="BL18" s="37"/>
       <c r="BM18" s="37"/>
     </row>
-    <row r="19" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="83" t="s">
@@ -3215,7 +3218,7 @@
       <c r="BL19" s="37"/>
       <c r="BM19" s="37"/>
     </row>
-    <row r="20" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="83" t="s">
@@ -3297,7 +3300,7 @@
       <c r="BL20" s="37"/>
       <c r="BM20" s="37"/>
     </row>
-    <row r="21" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="96"/>
@@ -3309,8 +3312,8 @@
       <c r="I21" s="3"/>
       <c r="Z21" s="95"/>
     </row>
-    <row r="22" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
+    <row r="22" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="112"/>
       <c r="B22" s="90" t="s">
         <v>10</v>
       </c>
@@ -3327,9 +3330,9 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
+    <row r="23" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="46" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3412,7 @@
       <c r="BL23" s="37"/>
       <c r="BM23" s="37"/>
     </row>
-    <row r="24" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="46" t="s">
@@ -3491,7 +3494,7 @@
       <c r="BL24" s="37"/>
       <c r="BM24" s="37"/>
     </row>
-    <row r="25" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="46" t="s">
@@ -3573,7 +3576,7 @@
       <c r="BL25" s="37"/>
       <c r="BM25" s="37"/>
     </row>
-    <row r="26" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="84" t="s">
@@ -3651,7 +3654,7 @@
       <c r="BL26" s="54"/>
       <c r="BM26" s="54"/>
     </row>
-    <row r="27" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="90" t="s">
         <v>13</v>
@@ -3669,7 +3672,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="46" t="s">
@@ -3679,7 +3682,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="48">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F28" s="49">
         <v>45815</v>
@@ -3750,7 +3753,7 @@
       <c r="BL28" s="37"/>
       <c r="BM28" s="37"/>
     </row>
-    <row r="29" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="108" t="s">
@@ -3760,7 +3763,7 @@
         <v>30</v>
       </c>
       <c r="E29" s="48">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F29" s="49">
         <f>F28+1</f>
@@ -3832,7 +3835,7 @@
       <c r="BL29" s="37"/>
       <c r="BM29" s="37"/>
     </row>
-    <row r="30" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="46" t="s">
@@ -3842,7 +3845,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="48">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F30" s="49">
         <f>F29</f>
@@ -3914,7 +3917,7 @@
       <c r="BL30" s="37"/>
       <c r="BM30" s="37"/>
     </row>
-    <row r="31" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="84" t="s">
@@ -3924,7 +3927,7 @@
         <v>31</v>
       </c>
       <c r="E31" s="48">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F31" s="86">
         <f>F28+1</f>
@@ -3993,7 +3996,7 @@
       <c r="BL31" s="54"/>
       <c r="BM31" s="54"/>
     </row>
-    <row r="32" spans="1:65" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:65" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="100"/>
       <c r="B32" s="100"/>
       <c r="C32" s="101"/>
@@ -4060,7 +4063,7 @@
       <c r="BL32" s="104"/>
       <c r="BM32" s="104"/>
     </row>
-    <row r="33" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="90" t="s">
         <v>10</v>
@@ -4134,11 +4137,11 @@
       <c r="BL33" s="54"/>
       <c r="BM33" s="54"/>
     </row>
-    <row r="34" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="56" t="s">
         <v>30</v>
@@ -4216,14 +4219,14 @@
       <c r="BL34" s="37"/>
       <c r="BM34" s="37"/>
     </row>
-    <row r="35" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="55" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E35" s="57">
         <v>1</v>
@@ -4233,8 +4236,8 @@
         <v>45817</v>
       </c>
       <c r="G35" s="58">
-        <f>F35+2</f>
-        <v>45819</v>
+        <f>F35+1</f>
+        <v>45818</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="3"/>
@@ -4295,11 +4298,11 @@
       <c r="BL35" s="37"/>
       <c r="BM35" s="37"/>
     </row>
-    <row r="36" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="55" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D36" s="56" t="s">
         <v>30</v>
@@ -4308,12 +4311,12 @@
         <v>1</v>
       </c>
       <c r="F36" s="58">
-        <f>F13+10</f>
-        <v>45819</v>
+        <f>F13+8</f>
+        <v>45817</v>
       </c>
       <c r="G36" s="58">
         <f>F36+2</f>
-        <v>45821</v>
+        <v>45819</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="3"/>
@@ -4374,25 +4377,25 @@
       <c r="BL36" s="37"/>
       <c r="BM36" s="37"/>
     </row>
-    <row r="37" spans="1:65" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:65" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="109" t="s">
-        <v>38</v>
+      <c r="C37" s="55" t="s">
+        <v>55</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="57">
         <v>1</v>
       </c>
       <c r="F37" s="58">
-        <f>F13+8</f>
-        <v>45817</v>
+        <f>F13+10</f>
+        <v>45819</v>
       </c>
       <c r="G37" s="58">
         <f>F37+2</f>
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="3">
@@ -4456,11 +4459,11 @@
       <c r="BL37" s="91"/>
       <c r="BM37" s="91"/>
     </row>
-    <row r="38" spans="1:65" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:65" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="55" t="s">
-        <v>39</v>
+      <c r="C38" s="109" t="s">
+        <v>36</v>
       </c>
       <c r="D38" s="56" t="s">
         <v>31</v>
@@ -4469,12 +4472,12 @@
         <v>1</v>
       </c>
       <c r="F38" s="58">
-        <f>F13+10</f>
+        <f>F13+8</f>
+        <v>45817</v>
+      </c>
+      <c r="G38" s="58">
+        <f>F38+2</f>
         <v>45819</v>
-      </c>
-      <c r="G38" s="58">
-        <f t="shared" ref="G38:G41" si="6">F38+2</f>
-        <v>45821</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="3"/>
@@ -4535,11 +4538,11 @@
       <c r="BL38" s="91"/>
       <c r="BM38" s="91"/>
     </row>
-    <row r="39" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D39" s="56" t="s">
         <v>31</v>
@@ -4548,12 +4551,12 @@
         <v>1</v>
       </c>
       <c r="F39" s="58">
-        <f>F38+2</f>
+        <f>F13+10</f>
+        <v>45819</v>
+      </c>
+      <c r="G39" s="58">
+        <f t="shared" ref="G39:G42" si="6">F39+2</f>
         <v>45821</v>
-      </c>
-      <c r="G39" s="58">
-        <f t="shared" si="6"/>
-        <v>45823</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="3">
@@ -4617,30 +4620,30 @@
       <c r="BL39" s="37"/>
       <c r="BM39" s="37"/>
     </row>
-    <row r="40" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E40" s="57">
         <v>1</v>
       </c>
       <c r="F40" s="58">
-        <f>F38-2</f>
-        <v>45817</v>
+        <f>F39+2</f>
+        <v>45821</v>
       </c>
       <c r="G40" s="58">
-        <f>F40+3</f>
-        <v>45820</v>
+        <f t="shared" si="6"/>
+        <v>45823</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
@@ -4699,30 +4702,30 @@
       <c r="BL40" s="37"/>
       <c r="BM40" s="37"/>
     </row>
-    <row r="41" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="56" t="s">
         <v>42</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>54</v>
       </c>
       <c r="E41" s="57">
         <v>1</v>
       </c>
       <c r="F41" s="58">
-        <f>F38+2</f>
-        <v>45821</v>
+        <f>F39-2</f>
+        <v>45817</v>
       </c>
       <c r="G41" s="58">
-        <f t="shared" si="6"/>
-        <v>45823</v>
+        <f>F41+3</f>
+        <v>45820</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="3">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" s="54"/>
       <c r="K41" s="54"/>
@@ -4781,22 +4784,29 @@
       <c r="BL41" s="54"/>
       <c r="BM41" s="54"/>
     </row>
-    <row r="42" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
-      <c r="B42" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="C42" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="57">
+        <v>1</v>
+      </c>
+      <c r="F42" s="58">
+        <f>F39+2</f>
+        <v>45821</v>
+      </c>
+      <c r="G42" s="58">
+        <f t="shared" si="6"/>
+        <v>45823</v>
+      </c>
       <c r="H42" s="5"/>
-      <c r="I42" s="3" t="str">
+      <c r="I42" s="3">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="37"/>
@@ -4855,28 +4865,22 @@
       <c r="BL42" s="37"/>
       <c r="BM42" s="37"/>
     </row>
-    <row r="43" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="57">
-        <v>1</v>
-      </c>
-      <c r="F43" s="58">
-        <v>45818</v>
-      </c>
-      <c r="G43" s="58">
-        <v>45848</v>
-      </c>
+      <c r="B43" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v/>
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
@@ -4935,11 +4939,11 @@
       <c r="BL43" s="37"/>
       <c r="BM43" s="37"/>
     </row>
-    <row r="44" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="55" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D44" s="56" t="s">
         <v>30</v>
@@ -4948,15 +4952,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="58">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="G44" s="58">
-        <v>45853</v>
+        <v>45848</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="3">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
@@ -5015,14 +5019,14 @@
       <c r="BL44" s="37"/>
       <c r="BM44" s="37"/>
     </row>
-    <row r="45" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="55" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E45" s="57">
         <v>1</v>
@@ -5095,14 +5099,14 @@
       <c r="BL45" s="37"/>
       <c r="BM45" s="37"/>
     </row>
-    <row r="46" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="109" t="s">
-        <v>38</v>
+      <c r="C46" s="55" t="s">
+        <v>54</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="57">
         <v>1</v>
@@ -5172,23 +5176,23 @@
       <c r="BL46" s="64"/>
       <c r="BM46" s="64"/>
     </row>
-    <row r="47" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="55" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" s="57">
         <v>1</v>
       </c>
-      <c r="F47" s="110">
-        <v>45817</v>
-      </c>
-      <c r="G47" s="110">
-        <v>45855</v>
+      <c r="F47" s="58">
+        <v>45816</v>
+      </c>
+      <c r="G47" s="58">
+        <v>45853</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="3"/>
@@ -5249,11 +5253,11 @@
       <c r="BL47" s="64"/>
       <c r="BM47" s="64"/>
     </row>
-    <row r="48" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="55" t="s">
-        <v>40</v>
+      <c r="C48" s="109" t="s">
+        <v>36</v>
       </c>
       <c r="D48" s="56" t="s">
         <v>31</v>
@@ -5261,11 +5265,11 @@
       <c r="E48" s="57">
         <v>1</v>
       </c>
-      <c r="F48" s="110">
+      <c r="F48" s="123">
         <v>45817</v>
       </c>
-      <c r="G48" s="110">
-        <v>45853</v>
+      <c r="G48" s="123">
+        <v>45855</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="3"/>
@@ -5326,23 +5330,23 @@
       <c r="BL48" s="64"/>
       <c r="BM48" s="64"/>
     </row>
-    <row r="49" spans="1:65" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:65" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="100"/>
       <c r="B49" s="4"/>
       <c r="C49" s="55" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D49" s="56" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E49" s="57">
         <v>1</v>
       </c>
-      <c r="F49" s="110">
-        <v>45818</v>
-      </c>
-      <c r="G49" s="110">
-        <v>45858</v>
+      <c r="F49" s="123">
+        <v>45817</v>
+      </c>
+      <c r="G49" s="123">
+        <v>45853</v>
       </c>
       <c r="H49" s="102"/>
       <c r="I49" s="103"/>
@@ -5403,29 +5407,28 @@
       <c r="BL49" s="106"/>
       <c r="BM49" s="106"/>
     </row>
-    <row r="50" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="100"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="55" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E50" s="57">
         <v>1</v>
       </c>
-      <c r="F50" s="58">
-        <f>F47+2</f>
-        <v>45819</v>
-      </c>
-      <c r="G50" s="58">
+      <c r="F50" s="123">
+        <v>45818</v>
+      </c>
+      <c r="G50" s="123">
         <v>45858</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="3">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J50" s="64"/>
       <c r="K50" s="64"/>
@@ -5484,18 +5487,29 @@
       <c r="BL50" s="64"/>
       <c r="BM50" s="64"/>
     </row>
-    <row r="51" spans="1:65" s="33" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:65" s="33" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="117"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="57">
+        <v>1</v>
+      </c>
+      <c r="F51" s="58">
+        <f>F48+2</f>
+        <v>45819</v>
+      </c>
+      <c r="G51" s="58">
+        <v>45858</v>
+      </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="3" t="str">
+      <c r="I51" s="3">
         <f t="shared" si="5"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
@@ -5554,22 +5568,29 @@
       <c r="BL51" s="37"/>
       <c r="BM51" s="37"/>
     </row>
-    <row r="52" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
-      <c r="B52" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="63"/>
+      <c r="C52" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="57">
+        <v>1</v>
+      </c>
+      <c r="F52" s="58">
+        <f>F49+2</f>
+        <v>45819</v>
+      </c>
+      <c r="G52" s="58">
+        <f>F52+25</f>
+        <v>45844</v>
+      </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="3" t="str">
+      <c r="I52" s="3">
         <f t="shared" si="5"/>
-        <v/>
+        <v>26</v>
       </c>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
@@ -5628,29 +5649,12 @@
       <c r="BL52" s="37"/>
       <c r="BM52" s="37"/>
     </row>
-    <row r="53" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="67">
-        <v>1</v>
-      </c>
-      <c r="F53" s="68">
-        <v>45824</v>
-      </c>
-      <c r="G53" s="68">
-        <f>F53+1</f>
-        <v>45825</v>
-      </c>
       <c r="H53" s="5"/>
-      <c r="I53" s="3">
+      <c r="I53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="J53" s="64"/>
       <c r="K53" s="64"/>
@@ -5709,29 +5713,22 @@
       <c r="BL53" s="64"/>
       <c r="BM53" s="64"/>
     </row>
-    <row r="54" spans="1:65" s="33" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:65" s="33" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="67">
-        <v>1</v>
-      </c>
-      <c r="F54" s="68">
-        <v>45824</v>
-      </c>
-      <c r="G54" s="68">
-        <f>F54+1</f>
-        <v>45825</v>
-      </c>
+      <c r="B54" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="60"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
@@ -5790,22 +5787,29 @@
       <c r="BL54" s="37"/>
       <c r="BM54" s="37"/>
     </row>
-    <row r="55" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="67">
+        <v>1</v>
+      </c>
+      <c r="F55" s="68">
+        <v>45824</v>
+      </c>
+      <c r="G55" s="68">
+        <f>F55+1</f>
+        <v>45825</v>
+      </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="3" t="str">
+      <c r="I55" s="3">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
@@ -5864,23 +5868,24 @@
       <c r="BL55" s="37"/>
       <c r="BM55" s="37"/>
     </row>
-    <row r="56" spans="1:65" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:65" s="105" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="100"/>
       <c r="B56" s="4"/>
       <c r="C56" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="114" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>24</v>
       </c>
       <c r="E56" s="67">
         <v>1</v>
       </c>
       <c r="F56" s="68">
-        <v>45863</v>
+        <v>45824</v>
       </c>
       <c r="G56" s="68">
-        <v>45864</v>
+        <f>F56+1</f>
+        <v>45825</v>
       </c>
       <c r="H56" s="102"/>
       <c r="I56" s="103"/>
@@ -5941,28 +5946,22 @@
       <c r="BL56" s="106"/>
       <c r="BM56" s="106"/>
     </row>
-    <row r="57" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="67">
-        <v>1</v>
-      </c>
-      <c r="F57" s="68">
-        <v>45863</v>
-      </c>
-      <c r="G57" s="68">
-        <v>45863</v>
-      </c>
+      <c r="B57" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J57" s="64"/>
       <c r="K57" s="64"/>
@@ -6021,18 +6020,28 @@
       <c r="BL57" s="64"/>
       <c r="BM57" s="64"/>
     </row>
-    <row r="58" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="113"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
+    <row r="58" spans="1:65" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="112"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="67">
+        <v>1</v>
+      </c>
+      <c r="F58" s="68">
+        <v>45864</v>
+      </c>
+      <c r="G58" s="68">
+        <v>45865</v>
+      </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="3" t="str">
+      <c r="I58" s="3">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
@@ -6091,21 +6100,26 @@
       <c r="BL58" s="37"/>
       <c r="BM58" s="37"/>
     </row>
-    <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="78"/>
+    <row r="59" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="67">
+        <v>1</v>
+      </c>
+      <c r="F59" s="68">
+        <v>45865</v>
+      </c>
+      <c r="G59" s="68">
+        <v>45866</v>
+      </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="3" t="str">
+      <c r="I59" s="3">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
@@ -6164,29 +6178,17 @@
       <c r="BL59" s="37"/>
       <c r="BM59" s="37"/>
     </row>
-    <row r="60" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="113"/>
-      <c r="C60" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="81">
-        <v>1</v>
-      </c>
-      <c r="F60" s="82">
-        <f>F53+2</f>
-        <v>45826</v>
-      </c>
-      <c r="G60" s="82">
-        <f>F60+1</f>
-        <v>45827</v>
-      </c>
+    <row r="60" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="100"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="3">
+      <c r="I60" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="J60" s="37"/>
       <c r="K60" s="37"/>
@@ -6245,24 +6247,17 @@
       <c r="BL60" s="37"/>
       <c r="BM60" s="37"/>
     </row>
-    <row r="61" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="81">
-        <v>1</v>
-      </c>
-      <c r="F61" s="82">
-        <f>F60</f>
-        <v>45826</v>
-      </c>
-      <c r="G61" s="82">
-        <f>F61+1</f>
-        <v>45827</v>
-      </c>
+    <row r="61" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="75"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="78"/>
       <c r="H61" s="5"/>
       <c r="I61" s="3"/>
       <c r="J61" s="91"/>
@@ -6322,28 +6317,29 @@
       <c r="BL61" s="91"/>
       <c r="BM61" s="91"/>
     </row>
-    <row r="62" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="112"/>
       <c r="C62" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D62" s="80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E62" s="81">
         <v>1</v>
       </c>
       <c r="F62" s="82">
-        <f>F61+1</f>
-        <v>45827</v>
+        <f>F55+2</f>
+        <v>45826</v>
       </c>
       <c r="G62" s="82">
-        <f>F62+0</f>
+        <f>F62+1</f>
         <v>45827</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="64"/>
       <c r="K62" s="64"/>
@@ -6402,28 +6398,28 @@
       <c r="BL62" s="64"/>
       <c r="BM62" s="64"/>
     </row>
-    <row r="63" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="89" t="s">
-        <v>48</v>
+    <row r="63" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="79" t="s">
+        <v>45</v>
       </c>
       <c r="D63" s="80" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E63" s="81">
         <v>1</v>
       </c>
       <c r="F63" s="82">
-        <f>G62-1</f>
+        <f>F62</f>
         <v>45826</v>
       </c>
       <c r="G63" s="82">
-        <f>F63+2</f>
-        <v>45828</v>
+        <f>F63+1</f>
+        <v>45827</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="3">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" s="37"/>
       <c r="K63" s="37"/>
@@ -6482,21 +6478,28 @@
       <c r="BL63" s="37"/>
       <c r="BM63" s="37"/>
     </row>
-    <row r="64" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="75"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+    <row r="64" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="81">
+        <v>1</v>
+      </c>
+      <c r="F64" s="82">
+        <f>F63+1</f>
+        <v>45827</v>
+      </c>
+      <c r="G64" s="82">
+        <f>F64+0</f>
+        <v>45827</v>
+      </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="3" t="str">
+      <c r="I64" s="3">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J64" s="37"/>
       <c r="K64" s="37"/>
@@ -6555,26 +6558,28 @@
       <c r="BL64" s="37"/>
       <c r="BM64" s="37"/>
     </row>
-    <row r="65" spans="3:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="79" t="s">
-        <v>45</v>
+    <row r="65" spans="2:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="89" t="s">
+        <v>47</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E65" s="81">
         <v>1</v>
       </c>
       <c r="F65" s="82">
-        <v>45859</v>
+        <f>G64-1</f>
+        <v>45826</v>
       </c>
       <c r="G65" s="82">
-        <v>45859</v>
+        <f>F65+2</f>
+        <v>45828</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" s="37"/>
       <c r="K65" s="37"/>
@@ -6633,26 +6638,21 @@
       <c r="BL65" s="37"/>
       <c r="BM65" s="37"/>
     </row>
-    <row r="66" spans="3:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="81">
-        <v>1</v>
-      </c>
-      <c r="F66" s="82">
-        <v>45859</v>
-      </c>
-      <c r="G66" s="82">
-        <v>45859</v>
-      </c>
+    <row r="66" spans="2:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="75"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J66" s="37"/>
       <c r="K66" s="37"/>
@@ -6711,42 +6711,86 @@
       <c r="BL66" s="37"/>
       <c r="BM66" s="37"/>
     </row>
-    <row r="67" spans="3:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D67" s="80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E67" s="81">
         <v>1</v>
       </c>
-      <c r="F67" s="82">
-        <v>45859</v>
-      </c>
-      <c r="G67" s="82">
-        <v>45859</v>
+      <c r="F67" s="68">
+        <v>45864</v>
+      </c>
+      <c r="G67" s="68">
+        <v>45864</v>
       </c>
     </row>
-    <row r="68" spans="3:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="89" t="s">
-        <v>48</v>
+    <row r="68" spans="2:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="79" t="s">
+        <v>45</v>
       </c>
       <c r="D68" s="80" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E68" s="81">
         <v>1</v>
       </c>
-      <c r="F68" s="82">
-        <v>45863</v>
-      </c>
-      <c r="G68" s="82">
-        <v>45863</v>
+      <c r="F68" s="68">
+        <v>45864</v>
+      </c>
+      <c r="G68" s="68">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="69" spans="2:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="81">
+        <v>1</v>
+      </c>
+      <c r="F69" s="68">
+        <v>45864</v>
+      </c>
+      <c r="G69" s="68">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="70" spans="2:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="81">
+        <v>1</v>
+      </c>
+      <c r="F70" s="68">
+        <v>45865</v>
+      </c>
+      <c r="G70" s="68">
+        <v>45866</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="J2:P2"/>
     <mergeCell ref="BG7:BM7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:W7"/>
@@ -6755,18 +6799,8 @@
     <mergeCell ref="AL7:AR7"/>
     <mergeCell ref="AS7:AY7"/>
     <mergeCell ref="AZ7:BF7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
-  <conditionalFormatting sqref="E10:E68">
+  <conditionalFormatting sqref="E54:E70 E10:E52">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6842,13 +6876,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A6:B6" xr:uid="{EEA7C783-457F-401F-98B9-9035587B9210}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A7:B7" xr:uid="{43382715-6BC7-4B19-A31B-4B13A11ED166}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A8:B9" xr:uid="{7A3789A6-A3FB-43B6-A4F7-8C0AC564F67E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11:B11 B22 B33 B27 B42 B16 B51:B52 B64 B59 B55" xr:uid="{CEC78982-AFA8-419E-B0A2-676B709E5100}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11:B11 B22 B33 B27 B43 B16 B54 B66 B61 B57" xr:uid="{CEC78982-AFA8-419E-B0A2-676B709E5100}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A12:B12" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A13:B13" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A22" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A33" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A50" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A58 B60" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A58 B62" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -6872,7 +6906,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E10:E68</xm:sqref>
+          <xm:sqref>E54:E70 E10:E52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6886,19 +6920,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7214,29 +7259,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7263,13 +7301,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
